--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\【Py_04】接口自动化\Python3+Pytest 接口自动化测试全方案设计与开发\讲义代码\InterAutoTest_W（项目及框架代码）\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\InterAutoTest_W\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="90">
   <si>
     <t>headers</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -558,15 +558,8 @@
     <t>/orders/</t>
   </si>
   <si>
-    <t>y</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>n</t>
     <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"Authorization": "JWT ${token}$"}</t>
   </si>
   <si>
     <t>sheet名称  feature 一级标签</t>
@@ -638,6 +631,10 @@
   <si>
     <t>select id,username,mobile,email from tb_users 
 where username='python'</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Authorization": "JWT ${token}$"}</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -2290,8 +2287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2303,7 +2300,7 @@
     <col min="8" max="8" width="31.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="65.125" customWidth="1"/>
     <col min="10" max="11" width="8.125" customWidth="1"/>
-    <col min="13" max="13" width="29" customWidth="1"/>
+    <col min="13" max="13" width="85.25" customWidth="1"/>
     <col min="16" max="16" width="37.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2498,7 +2495,7 @@
       <c r="J5" s="12"/>
       <c r="K5" s="15"/>
       <c r="L5" s="21" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
@@ -2606,17 +2603,17 @@
       <c r="J8" s="12"/>
       <c r="K8" s="15"/>
       <c r="L8" s="21" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="N8" s="14"/>
       <c r="O8" s="21">
         <v>200</v>
       </c>
       <c r="P8" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="60">
@@ -2646,7 +2643,7 @@
       <c r="J9" s="12"/>
       <c r="K9" s="15"/>
       <c r="L9" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
@@ -2689,7 +2686,7 @@
         <v>76</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="N10" s="12"/>
       <c r="O10" s="21">
@@ -2780,7 +2777,7 @@
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -2800,7 +2797,7 @@
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
@@ -2820,7 +2817,7 @@
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
@@ -2840,7 +2837,7 @@
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
